--- a/biology/Zoologie/Belodon/Belodon.xlsx
+++ b/biology/Zoologie/Belodon/Belodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belodon est un genre éteint de reptiles phytosauriens ressemblant à un crocodile.
 Ses restes fossiles ont été trouvés dans de nombreux pays, en particulier en Europe et aux États-Unis, ils datent du Trias supérieur, il y a environ entre 237 et 201 Ma (millions d'années).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien « bólos » (flèche, javelot) et « Odoús » (dent) pour signifier la forme pointue de ses dents.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des restes d'un individu de ce genre furent retrouvés en Angleterre. Son apparence était celle d'un crocodile. Comme les crocodiles, c'était un crurotarsien, car sa cheville était complexe et permettait en plus du simple mouvement de charnière, une rotation du pied. Cependant les narines de Belodon étaient situées juste à l'avant des yeux, comme chez tous les phytosaures, dont le célèbre Parasuchus, alors que chez les crocodiles, elles sont situées à l'avant du museau. Il appartenait à l'ordre des phytosaures, aussi appelée Parasuchia, des archosauriens fossiles semi-aquatiques et dotés d'une cuirasse.
 </t>
@@ -574,16 +590,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De nombreuses espèces ont été rattachées au genre, parmi lesquels :
 † Belodon plieningeri Meyer, 1844 (espèce type)
-† Belodon buceros Cope[1], 1881
+† Belodon buceros Cope, 1881
 † Belodon kapfii von Meyer, 1861
-† Belodon lepturus (Cope[2], 1870)
-† Belodon priscus Leidy[3], 1856 (synonyme de Compsosaurus priscus)
-† Belodon scolopax (Cope[1], 1881)
-† Belodon validus (Marsh[4], 1893)</t>
+† Belodon lepturus (Cope, 1870)
+† Belodon priscus Leidy, 1856 (synonyme de Compsosaurus priscus)
+† Belodon scolopax (Cope, 1881)
+† Belodon validus (Marsh, 1893)</t>
         </is>
       </c>
     </row>
